--- a/data/ЕЦ.xlsx
+++ b/data/ЕЦ.xlsx
@@ -10848,8 +10848,8 @@
   </sheetPr>
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
